--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t>工号</t>
   </si>
@@ -452,6 +452,9 @@
   </si>
   <si>
     <t>汪舒雅</t>
+  </si>
+  <si>
+    <t>卫小云</t>
   </si>
 </sst>
 </file>
@@ -1757,7 +1760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3364,6 +3367,17 @@
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
     </row>
+    <row r="146" ht="19" customHeight="1">
+      <c r="A146" s="5">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s" s="6">
+        <v>147</v>
+      </c>
+      <c r="C146" s="10"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
